--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H2">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I2">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J2">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N2">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O2">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P2">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q2">
-        <v>10.190327666013</v>
+        <v>5.92731000932125</v>
       </c>
       <c r="R2">
-        <v>40.761310664052</v>
+        <v>23.709240037285</v>
       </c>
       <c r="S2">
-        <v>0.002396454042932091</v>
+        <v>0.001273604486156087</v>
       </c>
       <c r="T2">
-        <v>0.00130421588569208</v>
+        <v>0.000746537997500124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H3">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I3">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J3">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.145263</v>
       </c>
       <c r="O3">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P3">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q3">
-        <v>2.4520004368845</v>
+        <v>1.9881770336725</v>
       </c>
       <c r="R3">
-        <v>14.712002621307</v>
+        <v>11.929062202035</v>
       </c>
       <c r="S3">
-        <v>0.0005766356640170884</v>
+        <v>0.0004272007344606158</v>
       </c>
       <c r="T3">
-        <v>0.00047073136796786</v>
+        <v>0.0003756129759687319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H4">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I4">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J4">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N4">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O4">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P4">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q4">
-        <v>962.4444795314402</v>
+        <v>1141.598885395733</v>
       </c>
       <c r="R4">
-        <v>5774.666877188642</v>
+        <v>6849.593312374395</v>
       </c>
       <c r="S4">
-        <v>0.226337566333939</v>
+        <v>0.2452960043500894</v>
       </c>
       <c r="T4">
-        <v>0.1847686483362118</v>
+        <v>0.2156746343226857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H5">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I5">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J5">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N5">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O5">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P5">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q5">
-        <v>9.59569692459675</v>
+        <v>8.067512516799999</v>
       </c>
       <c r="R5">
-        <v>38.382787698387</v>
+        <v>32.2700500672</v>
       </c>
       <c r="S5">
-        <v>0.002256615041574815</v>
+        <v>0.001733471020978951</v>
       </c>
       <c r="T5">
-        <v>0.001228111673492654</v>
+        <v>0.001016094084775014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H6">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I6">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J6">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N6">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O6">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P6">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q6">
-        <v>8.178466227991001</v>
+        <v>2023.563363013078</v>
       </c>
       <c r="R6">
-        <v>49.070797367946</v>
+        <v>12141.38017807847</v>
       </c>
       <c r="S6">
-        <v>0.001923325637743786</v>
+        <v>0.4348042152513764</v>
       </c>
       <c r="T6">
-        <v>0.001570089685739519</v>
+        <v>0.3822982782567643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H7">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I7">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J7">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N7">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O7">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P7">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q7">
-        <v>1288.438750374306</v>
+        <v>98.93186876558333</v>
       </c>
       <c r="R7">
-        <v>7730.632502245836</v>
+        <v>593.5912125935</v>
       </c>
       <c r="S7">
-        <v>0.3030014690011379</v>
+        <v>0.02125754713107721</v>
       </c>
       <c r="T7">
-        <v>0.2473525397398069</v>
+        <v>0.01869053560916947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>2.001357</v>
       </c>
       <c r="I8">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J8">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N8">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O8">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P8">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q8">
-        <v>0.134247024846</v>
+        <v>0.0963029639235</v>
       </c>
       <c r="R8">
-        <v>0.805482149076</v>
+        <v>0.577817783541</v>
       </c>
       <c r="S8">
-        <v>3.157080282283742E-05</v>
+        <v>2.069267284657219E-05</v>
       </c>
       <c r="T8">
-        <v>2.577254257412255E-05</v>
+        <v>1.819387421808121E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.001357</v>
       </c>
       <c r="I9">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J9">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.145263</v>
       </c>
       <c r="O9">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P9">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q9">
         <v>0.032302569099</v>
@@ -1013,10 +1013,10 @@
         <v>0.290723121891</v>
       </c>
       <c r="S9">
-        <v>7.596578329132308E-06</v>
+        <v>6.940871466846813E-06</v>
       </c>
       <c r="T9">
-        <v>9.302098184066221E-06</v>
+        <v>9.154062167415844E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.001357</v>
       </c>
       <c r="I10">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J10">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N10">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O10">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P10">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q10">
-        <v>12.67921034448</v>
+        <v>18.547934240403</v>
       </c>
       <c r="R10">
-        <v>114.11289310032</v>
+        <v>166.931408163627</v>
       </c>
       <c r="S10">
-        <v>0.002981763284467945</v>
+        <v>0.003985405220978217</v>
       </c>
       <c r="T10">
-        <v>0.003651203690929718</v>
+        <v>0.005256205554221575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.001357</v>
       </c>
       <c r="I11">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J11">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N11">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O11">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P11">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q11">
-        <v>0.1264133799885</v>
+        <v>0.13107554112</v>
       </c>
       <c r="R11">
-        <v>0.758480279931</v>
+        <v>0.7864532467199999</v>
       </c>
       <c r="S11">
-        <v>2.97285686469667E-05</v>
+        <v>2.816427636368646E-05</v>
       </c>
       <c r="T11">
-        <v>2.426865117815251E-05</v>
+        <v>2.476322442265222E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>2.001357</v>
       </c>
       <c r="I12">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J12">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N12">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O12">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P12">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q12">
-        <v>0.107742831722</v>
+        <v>32.877502482358</v>
       </c>
       <c r="R12">
-        <v>0.969685485498</v>
+        <v>295.897522341222</v>
       </c>
       <c r="S12">
-        <v>2.533782554787669E-05</v>
+        <v>0.007064407731211952</v>
       </c>
       <c r="T12">
-        <v>3.102646096772517E-05</v>
+        <v>0.009316989639755644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.001357</v>
       </c>
       <c r="I13">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J13">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N13">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O13">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P13">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q13">
-        <v>16.973847613452</v>
+        <v>1.6073787559</v>
       </c>
       <c r="R13">
-        <v>152.764628521068</v>
+        <v>14.4664088031</v>
       </c>
       <c r="S13">
-        <v>0.003991730891346822</v>
+        <v>0.0003453783910824423</v>
       </c>
       <c r="T13">
-        <v>0.004887920727846893</v>
+        <v>0.0004555069602357926</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H14">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I14">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J14">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N14">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O14">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P14">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q14">
-        <v>0.869570147226</v>
+        <v>1.041533254233167</v>
       </c>
       <c r="R14">
-        <v>5.217420883356001</v>
+        <v>6.249199525399001</v>
       </c>
       <c r="S14">
-        <v>0.000204496358039891</v>
+        <v>0.000223794845045402</v>
       </c>
       <c r="T14">
-        <v>0.0001669387732523434</v>
+        <v>0.0001967699045744836</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H15">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I15">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J15">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.145263</v>
       </c>
       <c r="O15">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P15">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q15">
-        <v>0.209236292569</v>
+        <v>0.3493578862276667</v>
       </c>
       <c r="R15">
-        <v>1.883126633121</v>
+        <v>3.144220976049001</v>
       </c>
       <c r="S15">
-        <v>4.92059898061439E-05</v>
+        <v>7.506672849468788E-05</v>
       </c>
       <c r="T15">
-        <v>6.025330465765018E-05</v>
+        <v>9.90027696993319E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H16">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I16">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J16">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N16">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O16">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P16">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q16">
-        <v>82.12817243888003</v>
+        <v>200.599125111617</v>
       </c>
       <c r="R16">
-        <v>739.1535519499201</v>
+        <v>1805.392126004553</v>
       </c>
       <c r="S16">
-        <v>0.01931403948238133</v>
+        <v>0.04310284855345328</v>
       </c>
       <c r="T16">
-        <v>0.02365026513411385</v>
+        <v>0.05684677452041477</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H17">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I17">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J17">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N17">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O17">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P17">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q17">
-        <v>0.8188285853935</v>
+        <v>1.417604706346667</v>
       </c>
       <c r="R17">
-        <v>4.912971512361</v>
+        <v>8.50562823808</v>
       </c>
       <c r="S17">
-        <v>0.0001925634914056074</v>
+        <v>0.0003046015326952412</v>
       </c>
       <c r="T17">
-        <v>0.0001571974842807201</v>
+        <v>0.0002678185661940718</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H18">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I18">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J18">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N18">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O18">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P18">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q18">
-        <v>0.6978921890486667</v>
+        <v>355.5758904649176</v>
       </c>
       <c r="R18">
-        <v>6.281029701438</v>
+        <v>3200.183014184258</v>
       </c>
       <c r="S18">
-        <v>0.0001641229421458596</v>
+        <v>0.07640279461558361</v>
       </c>
       <c r="T18">
-        <v>0.0002009704443175256</v>
+        <v>0.1007648585650999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H19">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I19">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J19">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N19">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O19">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P19">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q19">
-        <v>109.946206891012</v>
+        <v>17.38407997232222</v>
       </c>
       <c r="R19">
-        <v>989.515862019108</v>
+        <v>156.4567197509</v>
       </c>
       <c r="S19">
-        <v>0.02585599213730697</v>
+        <v>0.003735327189842922</v>
       </c>
       <c r="T19">
-        <v>0.03166096196037586</v>
+        <v>0.004926386762063848</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H20">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I20">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J20">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N20">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O20">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P20">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q20">
-        <v>0.122476848186</v>
+        <v>0.1453466412335</v>
       </c>
       <c r="R20">
-        <v>0.489907392744</v>
+        <v>0.581386564934</v>
       </c>
       <c r="S20">
-        <v>2.880281651588505E-05</v>
+        <v>3.123071579377417E-05</v>
       </c>
       <c r="T20">
-        <v>1.567528113609479E-05</v>
+        <v>1.830624521396535E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H21">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I21">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J21">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.145263</v>
       </c>
       <c r="O21">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P21">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q21">
-        <v>0.029470424809</v>
+        <v>0.048753119639</v>
       </c>
       <c r="R21">
-        <v>0.176822548854</v>
+        <v>0.292518717834</v>
       </c>
       <c r="S21">
-        <v>6.930544433424123E-06</v>
+        <v>1.047561065452778E-05</v>
       </c>
       <c r="T21">
-        <v>5.657687974379423E-06</v>
+        <v>9.210600487391453E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H22">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I22">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J22">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N22">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O22">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P22">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q22">
-        <v>11.56755408368</v>
+        <v>27.993738030783</v>
       </c>
       <c r="R22">
-        <v>69.40532450208001</v>
+        <v>167.962428184698</v>
       </c>
       <c r="S22">
-        <v>0.002720335661347436</v>
+        <v>0.006015030474906135</v>
       </c>
       <c r="T22">
-        <v>0.002220721691539154</v>
+        <v>0.005288669505858255</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H23">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I23">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J23">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N23">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O23">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P23">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q23">
-        <v>0.1153300221535</v>
+        <v>0.19782765632</v>
       </c>
       <c r="R23">
-        <v>0.4613200886139999</v>
+        <v>0.79131062528</v>
       </c>
       <c r="S23">
-        <v>2.712210116491165E-05</v>
+        <v>4.250734147170891E-05</v>
       </c>
       <c r="T23">
-        <v>1.47605898377029E-05</v>
+        <v>2.491616975778653E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H24">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I24">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J24">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N24">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O24">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P24">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q24">
-        <v>0.09829642376866665</v>
+        <v>49.62084616370466</v>
       </c>
       <c r="R24">
-        <v>0.589778542612</v>
+        <v>297.725076982228</v>
       </c>
       <c r="S24">
-        <v>2.311631871581927E-05</v>
+        <v>0.01066205954835694</v>
       </c>
       <c r="T24">
-        <v>1.887080007447507E-05</v>
+        <v>0.009374534250205962</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H25">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I25">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J25">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N25">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O25">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P25">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q25">
-        <v>15.485656830532</v>
+        <v>2.425959636566667</v>
       </c>
       <c r="R25">
-        <v>92.91394098319199</v>
+        <v>14.5557578194</v>
       </c>
       <c r="S25">
-        <v>0.003641753841023154</v>
+        <v>0.0005212673323153392</v>
       </c>
       <c r="T25">
-        <v>0.00297291318307401</v>
+        <v>0.0004583203121442599</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H26">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I26">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J26">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N26">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O26">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P26">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q26">
-        <v>6.417450931737999</v>
+        <v>0.5033501838075</v>
       </c>
       <c r="R26">
-        <v>38.504705590428</v>
+        <v>3.020101102845</v>
       </c>
       <c r="S26">
-        <v>0.001509188588898337</v>
+        <v>0.000108155141404209</v>
       </c>
       <c r="T26">
-        <v>0.001232012609182885</v>
+        <v>9.509458025732672E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H27">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I27">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J27">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.145263</v>
       </c>
       <c r="O27">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P27">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q27">
-        <v>1.544169432430333</v>
+        <v>0.168837005955</v>
       </c>
       <c r="R27">
-        <v>13.897524891873</v>
+        <v>1.519533053595</v>
       </c>
       <c r="S27">
-        <v>0.0003631415201359928</v>
+        <v>3.627810387431949E-05</v>
       </c>
       <c r="T27">
-        <v>0.0004446709990551631</v>
+        <v>4.784586773688767E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H28">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I28">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J28">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N28">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O28">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P28">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q28">
-        <v>606.1081080361067</v>
+        <v>96.94515857863499</v>
       </c>
       <c r="R28">
-        <v>5454.972972324961</v>
+        <v>872.5064272077149</v>
       </c>
       <c r="S28">
-        <v>0.1425381276797891</v>
+        <v>0.02083066157880978</v>
       </c>
       <c r="T28">
-        <v>0.1745395889048658</v>
+        <v>0.02747279963209752</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H29">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I29">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J29">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N29">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O29">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P29">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q29">
-        <v>6.042976848998832</v>
+        <v>0.6850972703999999</v>
       </c>
       <c r="R29">
-        <v>36.25786109399299</v>
+        <v>4.110583622399999</v>
       </c>
       <c r="S29">
-        <v>0.001421123714149842</v>
+        <v>0.0001472072416766753</v>
       </c>
       <c r="T29">
-        <v>0.001160121636169726</v>
+        <v>0.0001294308405160803</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H30">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I30">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J30">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N30">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O30">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P30">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q30">
-        <v>5.150463011121555</v>
+        <v>171.84203105911</v>
       </c>
       <c r="R30">
-        <v>46.354167100094</v>
+        <v>1546.57827953199</v>
       </c>
       <c r="S30">
-        <v>0.001211231700344688</v>
+        <v>0.03692379533428826</v>
       </c>
       <c r="T30">
-        <v>0.001483167251373118</v>
+        <v>0.04869744664794461</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H31">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I31">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J31">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N31">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O31">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P31">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q31">
-        <v>811.4059459200893</v>
+        <v>8.4013446655</v>
       </c>
       <c r="R31">
-        <v>7302.653513280803</v>
+        <v>75.61210198949999</v>
       </c>
       <c r="S31">
-        <v>0.1908179131515725</v>
+        <v>0.00180520172538598</v>
       </c>
       <c r="T31">
-        <v>0.233658745623346</v>
+        <v>0.002380814699975528</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H32">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I32">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J32">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N32">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O32">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P32">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q32">
-        <v>1.260295271312</v>
+        <v>0.696169614918</v>
       </c>
       <c r="R32">
-        <v>7.561771627872</v>
+        <v>4.177017689507999</v>
       </c>
       <c r="S32">
-        <v>0.0002963829817069579</v>
+        <v>0.0001495863626654905</v>
       </c>
       <c r="T32">
-        <v>0.0002419495968205931</v>
+        <v>0.0001315226644356409</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H33">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I33">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J33">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.145263</v>
       </c>
       <c r="O33">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P33">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q33">
-        <v>0.3032527173946666</v>
+        <v>0.233513758812</v>
       </c>
       <c r="R33">
-        <v>2.729274456552</v>
+        <v>2.101623829308</v>
       </c>
       <c r="S33">
-        <v>7.131578340256921E-05</v>
+        <v>5.017523469068393E-05</v>
       </c>
       <c r="T33">
-        <v>8.732700309825829E-05</v>
+        <v>6.617428658880792E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H34">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I34">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J34">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N34">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O34">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P34">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q34">
-        <v>119.0309346478933</v>
+        <v>134.082147751164</v>
       </c>
       <c r="R34">
-        <v>1071.27841183104</v>
+        <v>1206.739329760476</v>
       </c>
       <c r="S34">
-        <v>0.02799244282618199</v>
+        <v>0.02881030764727637</v>
       </c>
       <c r="T34">
-        <v>0.03427707058353296</v>
+        <v>0.03799686372601207</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H35">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I35">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J35">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N35">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O35">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P35">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q35">
-        <v>1.186753935238666</v>
+        <v>0.9475389465599999</v>
       </c>
       <c r="R35">
-        <v>7.120523611431999</v>
+        <v>5.68523367936</v>
       </c>
       <c r="S35">
-        <v>0.0002790883040546032</v>
+        <v>0.0002035982344855657</v>
       </c>
       <c r="T35">
-        <v>0.0002278312413703918</v>
+        <v>0.000179012189325141</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H36">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I36">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J36">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N36">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O36">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P36">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q36">
-        <v>1.011477025228444</v>
+        <v>237.669925307704</v>
       </c>
       <c r="R36">
-        <v>9.103293227056</v>
+        <v>2139.029327769336</v>
       </c>
       <c r="S36">
-        <v>0.0002378685245348947</v>
+        <v>0.05106827255875832</v>
       </c>
       <c r="T36">
-        <v>0.0002912727644283094</v>
+        <v>0.06735208165406119</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H37">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I37">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J37">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N37">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O37">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P37">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q37">
-        <v>159.3484839440106</v>
+        <v>11.6196657292</v>
       </c>
       <c r="R37">
-        <v>1434.136355496096</v>
+        <v>104.5769915628</v>
       </c>
       <c r="S37">
-        <v>0.03747389986843594</v>
+        <v>0.002496724209982381</v>
       </c>
       <c r="T37">
-        <v>0.04588722459153177</v>
+        <v>0.00329283847745042</v>
       </c>
     </row>
   </sheetData>
